--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>30276900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>27238100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>27238100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>14122100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>14122100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>21895600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>21895600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>14691500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>14691500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>57147600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>57147600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>36127100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>36127100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>107539500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>107539500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>42802700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>42802700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>13143200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>13143200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>77248900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>77248900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>84227500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>84227500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>171120900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>171120900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>118796800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>221861200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>221861200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>267364000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>146244300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>146244300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>48675900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>48675900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>62855700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>62855700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>76524000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>76524000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>565833000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>565833000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>276493000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>328187200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>328187200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>111223300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>111223300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>194064600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1922"/>
+  <dimension ref="A1:I1923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67648,6 +67648,41 @@
         <v>194064600</v>
       </c>
     </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1923" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1923" t="n">
+        <v>146391900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1923"/>
+  <dimension ref="A1:I1924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67683,6 +67683,41 @@
         <v>146391900</v>
       </c>
     </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1924" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1924" t="n">
+        <v>257891500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1924"/>
+  <dimension ref="A1:I1925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67718,6 +67718,41 @@
         <v>257891500</v>
       </c>
     </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1925" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1925" t="n">
+        <v>169023000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1925"/>
+  <dimension ref="A1:I1926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67753,6 +67753,41 @@
         <v>169023000</v>
       </c>
     </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1926" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1926" t="n">
+        <v>191581600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1926"/>
+  <dimension ref="A1:I1927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67788,6 +67788,41 @@
         <v>191581600</v>
       </c>
     </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>295319100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1927"/>
+  <dimension ref="A1:I1928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67823,6 +67823,41 @@
         <v>295319100</v>
       </c>
     </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1928" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1928" t="n">
+        <v>54952000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1928"/>
+  <dimension ref="A1:I1929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67858,6 +67858,41 @@
         <v>54952000</v>
       </c>
     </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1929" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1929" t="n">
+        <v>92877000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1929"/>
+  <dimension ref="A1:I1930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67893,6 +67893,41 @@
         <v>92877000</v>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1930" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1930" t="n">
+        <v>85173500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1930"/>
+  <dimension ref="A1:I1931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67928,6 +67928,41 @@
         <v>85173500</v>
       </c>
     </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1931" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1931" t="n">
+        <v>106720200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1931"/>
+  <dimension ref="A1:I1932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67963,6 +67963,41 @@
         <v>106720200</v>
       </c>
     </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1932" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1932" t="n">
+        <v>124243400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1932"/>
+  <dimension ref="A1:I1933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67998,6 +67998,41 @@
         <v>124243400</v>
       </c>
     </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1933" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1933" t="n">
+        <v>78596000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1933"/>
+  <dimension ref="A1:I1934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68033,6 +68033,41 @@
         <v>78596000</v>
       </c>
     </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1934" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1934" t="n">
+        <v>89453900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1934"/>
+  <dimension ref="A1:I1935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68068,6 +68068,41 @@
         <v>89453900</v>
       </c>
     </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1935" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1935" t="n">
+        <v>201137900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1935"/>
+  <dimension ref="A1:I1936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68103,6 +68103,41 @@
         <v>201137900</v>
       </c>
     </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1936" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1936" t="n">
+        <v>419627200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1936"/>
+  <dimension ref="A1:I1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68138,6 +68138,41 @@
         <v>419627200</v>
       </c>
     </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1937" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1937" t="n">
+        <v>481985400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80318,6 +80318,41 @@
         <v>481985400</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>359310500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80353,6 +80353,41 @@
         <v>359310500</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>288394900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80388,6 +80388,41 @@
         <v>288394900</v>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>125910200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80423,6 +80423,41 @@
         <v>125910200</v>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>169423700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80458,6 +80458,41 @@
         <v>169423700</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>123763000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80493,6 +80493,41 @@
         <v>123763000</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>92664700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80528,6 +80528,41 @@
         <v>92664700</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>30968900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80563,6 +80563,41 @@
         <v>30968900</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>138110400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80598,6 +80598,41 @@
         <v>138110400</v>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>98697500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80633,6 +80633,41 @@
         <v>98697500</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>109638200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80668,6 +80668,76 @@
         <v>109638200</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>83545500</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>137553000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80738,6 +80738,41 @@
         <v>137553000</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>107302100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80773,6 +80773,111 @@
         <v>107302100</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>92353600</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>77370000</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>131922300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80878,6 +80878,41 @@
         <v>131922300</v>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>86363200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2301"/>
+  <dimension ref="A1:I2302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80913,6 +80913,41 @@
         <v>86363200</v>
       </c>
     </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>127435900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5218.xlsx
+++ b/data/5218.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2302"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80948,6 +80948,111 @@
         <v>127435900</v>
       </c>
     </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>327479000</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>90850900</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>5218</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>SAPNRG</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>39411700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
